--- a/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Tgfb1-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H2">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I2">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J2">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N2">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O2">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P2">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q2">
-        <v>62.91798884986937</v>
+        <v>76.99161945624601</v>
       </c>
       <c r="R2">
-        <v>62.91798884986937</v>
+        <v>692.9245751062141</v>
       </c>
       <c r="S2">
-        <v>0.003229166739221836</v>
+        <v>0.003407623952709187</v>
       </c>
       <c r="T2">
-        <v>0.003229166739221836</v>
+        <v>0.003827526246915089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H3">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I3">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J3">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N3">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O3">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P3">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q3">
-        <v>2069.468458647371</v>
+        <v>2351.545136715466</v>
       </c>
       <c r="R3">
-        <v>2069.468458647371</v>
+        <v>21163.90623043919</v>
       </c>
       <c r="S3">
-        <v>0.1062122111130805</v>
+        <v>0.1040786203789657</v>
       </c>
       <c r="T3">
-        <v>0.1062122111130805</v>
+        <v>0.1169036421775616</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4479704466856</v>
+        <v>50.950239</v>
       </c>
       <c r="H4">
-        <v>48.4479704466856</v>
+        <v>152.850717</v>
       </c>
       <c r="I4">
-        <v>0.1584488244220327</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J4">
-        <v>0.1584488244220327</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>19.7092840273248</v>
+        <v>0.030318</v>
       </c>
       <c r="N4">
-        <v>19.7092840273248</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O4">
-        <v>0.309295109941603</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P4">
-        <v>0.309295109941603</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q4">
-        <v>954.8748100811645</v>
+        <v>1.544709346002</v>
       </c>
       <c r="R4">
-        <v>954.8748100811645</v>
+        <v>13.902384114018</v>
       </c>
       <c r="S4">
-        <v>0.04900744656973035</v>
+        <v>6.836833157408184E-05</v>
       </c>
       <c r="T4">
-        <v>0.04900744656973035</v>
+        <v>7.679297574767467E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,55 +717,55 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.6458993053057</v>
+        <v>50.950239</v>
       </c>
       <c r="H5">
-        <v>13.6458993053057</v>
+        <v>152.850717</v>
       </c>
       <c r="I5">
-        <v>0.04462883962263146</v>
+        <v>0.1520006117784607</v>
       </c>
       <c r="J5">
-        <v>0.04462883962263146</v>
+        <v>0.1540898474582185</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29867130180628</v>
+        <v>19.7096195</v>
       </c>
       <c r="N5">
-        <v>1.29867130180628</v>
+        <v>39.419239</v>
       </c>
       <c r="O5">
-        <v>0.02037987186715166</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P5">
-        <v>0.02037987186715166</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q5">
-        <v>17.72153781513877</v>
+        <v>1004.209824124061</v>
       </c>
       <c r="R5">
-        <v>17.72153781513877</v>
+        <v>6025.258944744364</v>
       </c>
       <c r="S5">
-        <v>0.0009095300330888901</v>
+        <v>0.04444599911521174</v>
       </c>
       <c r="T5">
-        <v>0.0009095300330888901</v>
+        <v>0.03328188605799406</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H6">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I6">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J6">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.7152766063691</v>
+        <v>1.511114</v>
       </c>
       <c r="N6">
-        <v>42.7152766063691</v>
+        <v>4.533342</v>
       </c>
       <c r="O6">
-        <v>0.6703250181912453</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P6">
-        <v>0.6703250181912453</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q6">
-        <v>582.888363368793</v>
+        <v>22.96463720660266</v>
       </c>
       <c r="R6">
-        <v>582.888363368793</v>
+        <v>206.681734859424</v>
       </c>
       <c r="S6">
-        <v>0.02991582773189461</v>
+        <v>0.001016407348789016</v>
       </c>
       <c r="T6">
-        <v>0.02991582773189461</v>
+        <v>0.001141653497873316</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6458993053057</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H7">
-        <v>13.6458993053057</v>
+        <v>45.591472</v>
       </c>
       <c r="I7">
-        <v>0.04462883962263146</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J7">
-        <v>0.04462883962263146</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.7092840273248</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N7">
-        <v>19.7092840273248</v>
+        <v>138.461282</v>
       </c>
       <c r="O7">
-        <v>0.309295109941603</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P7">
-        <v>0.309295109941603</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q7">
-        <v>268.9509052165442</v>
+        <v>701.4059623763447</v>
       </c>
       <c r="R7">
-        <v>268.9509052165442</v>
+        <v>6312.653661387103</v>
       </c>
       <c r="S7">
-        <v>0.01380348185764797</v>
+        <v>0.03104399900725519</v>
       </c>
       <c r="T7">
-        <v>0.01380348185764797</v>
+        <v>0.03486937603986719</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>102.976605029442</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H8">
-        <v>102.976605029442</v>
+        <v>45.591472</v>
       </c>
       <c r="I8">
-        <v>0.3367844279017327</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J8">
-        <v>0.3367844279017327</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>1.29867130180628</v>
+        <v>0.030318</v>
       </c>
       <c r="N8">
-        <v>1.29867130180628</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O8">
-        <v>0.02037987186715166</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P8">
-        <v>0.02037987186715166</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q8">
-        <v>133.7327617091766</v>
+        <v>0.4607474160319999</v>
       </c>
       <c r="R8">
-        <v>133.7327617091766</v>
+        <v>4.146726744287999</v>
       </c>
       <c r="S8">
-        <v>0.006863623487489288</v>
+        <v>2.039253027937361E-05</v>
       </c>
       <c r="T8">
-        <v>0.006863623487489288</v>
+        <v>2.29053868526949E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,55 +965,55 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>102.976605029442</v>
+        <v>15.19715733333333</v>
       </c>
       <c r="H9">
-        <v>102.976605029442</v>
+        <v>45.591472</v>
       </c>
       <c r="I9">
-        <v>0.3367844279017327</v>
+        <v>0.04533790728558088</v>
       </c>
       <c r="J9">
-        <v>0.3367844279017327</v>
+        <v>0.0459610730244441</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>42.7152766063691</v>
+        <v>19.7096195</v>
       </c>
       <c r="N9">
-        <v>42.7152766063691</v>
+        <v>39.419239</v>
       </c>
       <c r="O9">
-        <v>0.6703250181912453</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P9">
-        <v>0.6703250181912453</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q9">
-        <v>4398.674167817435</v>
+        <v>299.5301885216347</v>
       </c>
       <c r="R9">
-        <v>4398.674167817435</v>
+        <v>1797.181131129808</v>
       </c>
       <c r="S9">
-        <v>0.2257550277597571</v>
+        <v>0.0132571083992573</v>
       </c>
       <c r="T9">
-        <v>0.2257550277597571</v>
+        <v>0.009927138099850893</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>102.976605029442</v>
+        <v>124.2523</v>
       </c>
       <c r="H10">
-        <v>102.976605029442</v>
+        <v>372.7569</v>
       </c>
       <c r="I10">
-        <v>0.3367844279017327</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J10">
-        <v>0.3367844279017327</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.7092840273248</v>
+        <v>1.511114</v>
       </c>
       <c r="N10">
-        <v>19.7092840273248</v>
+        <v>4.533342</v>
       </c>
       <c r="O10">
-        <v>0.309295109941603</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P10">
-        <v>0.309295109941603</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q10">
-        <v>2029.595156694916</v>
+        <v>187.7593900622</v>
       </c>
       <c r="R10">
-        <v>2029.595156694916</v>
+        <v>1689.8345105598</v>
       </c>
       <c r="S10">
-        <v>0.1041657766544863</v>
+        <v>0.00831016933324312</v>
       </c>
       <c r="T10">
-        <v>0.1041657766544863</v>
+        <v>0.0093341846637769</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H11">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I11">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J11">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.29867130180628</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N11">
-        <v>1.29867130180628</v>
+        <v>138.461282</v>
       </c>
       <c r="O11">
-        <v>0.02037987186715166</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P11">
-        <v>0.02037987186715166</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q11">
-        <v>168.4357563204233</v>
+        <v>5734.710916482866</v>
       </c>
       <c r="R11">
-        <v>168.4357563204233</v>
+        <v>51612.39824834579</v>
       </c>
       <c r="S11">
-        <v>0.008644700060318507</v>
+        <v>0.2538164337740076</v>
       </c>
       <c r="T11">
-        <v>0.008644700060318507</v>
+        <v>0.2850928023897796</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H12">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I12">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J12">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>42.7152766063691</v>
+        <v>0.030318</v>
       </c>
       <c r="N12">
-        <v>42.7152766063691</v>
+        <v>0.09095399999999999</v>
       </c>
       <c r="O12">
-        <v>0.6703250181912453</v>
+        <v>0.0004497898447522563</v>
       </c>
       <c r="P12">
-        <v>0.6703250181912453</v>
+        <v>0.000498364928088446</v>
       </c>
       <c r="Q12">
-        <v>5540.108502915923</v>
+        <v>3.767081231399999</v>
       </c>
       <c r="R12">
-        <v>5540.108502915923</v>
+        <v>33.9037310826</v>
       </c>
       <c r="S12">
-        <v>0.2843373482897542</v>
+        <v>0.0001667297860024226</v>
       </c>
       <c r="T12">
-        <v>0.2843373482897542</v>
+        <v>0.0001872749578366609</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1216,57 +1216,57 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>129.698528092637</v>
+        <v>124.2523</v>
       </c>
       <c r="H13">
-        <v>129.698528092637</v>
+        <v>372.7569</v>
       </c>
       <c r="I13">
-        <v>0.4241783322618462</v>
+        <v>0.3706837491945981</v>
       </c>
       <c r="J13">
-        <v>0.4241783322618462</v>
+        <v>0.375778766284743</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.7092840273248</v>
+        <v>19.7096195</v>
       </c>
       <c r="N13">
-        <v>19.7092840273248</v>
+        <v>39.419239</v>
       </c>
       <c r="O13">
-        <v>0.309295109941603</v>
+        <v>0.2924067120202865</v>
       </c>
       <c r="P13">
-        <v>0.309295109941603</v>
+        <v>0.2159901291810835</v>
       </c>
       <c r="Q13">
-        <v>2556.265128103747</v>
+        <v>2448.96555499985</v>
       </c>
       <c r="R13">
-        <v>2556.265128103747</v>
+        <v>14693.7933299991</v>
       </c>
       <c r="S13">
-        <v>0.1311962839117735</v>
+        <v>0.108390416301345</v>
       </c>
       <c r="T13">
-        <v>0.1311962839117735</v>
+        <v>0.08116450427334984</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,57 +1278,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H14">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I14">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J14">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.29867130180628</v>
+        <v>1.511114</v>
       </c>
       <c r="N14">
-        <v>1.29867130180628</v>
+        <v>4.533342</v>
       </c>
       <c r="O14">
-        <v>0.02037987186715166</v>
+        <v>0.02241848840500565</v>
       </c>
       <c r="P14">
-        <v>0.02037987186715166</v>
+        <v>0.02483957450832654</v>
       </c>
       <c r="Q14">
-        <v>14.27908472634397</v>
+        <v>198.2030167538447</v>
       </c>
       <c r="R14">
-        <v>14.27908472634397</v>
+        <v>1783.827150784602</v>
       </c>
       <c r="S14">
-        <v>0.0007328515470331374</v>
+        <v>0.008772400842580651</v>
       </c>
       <c r="T14">
-        <v>0.0007328515470331374</v>
+        <v>0.009853374356857321</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,114 +1340,424 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.9951492009438</v>
+        <v>131.1635103333333</v>
       </c>
       <c r="H15">
-        <v>10.9951492009438</v>
+        <v>393.490531</v>
       </c>
       <c r="I15">
-        <v>0.03595957579175706</v>
+        <v>0.3913020665845575</v>
       </c>
       <c r="J15">
-        <v>0.03595957579175706</v>
+        <v>0.3966804807205673</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>42.7152766063691</v>
+        <v>46.15376066666666</v>
       </c>
       <c r="N15">
-        <v>42.7152766063691</v>
+        <v>138.461282</v>
       </c>
       <c r="O15">
-        <v>0.6703250181912453</v>
+        <v>0.6847250097299556</v>
       </c>
       <c r="P15">
-        <v>0.6703250181912453</v>
+        <v>0.7586719313825014</v>
       </c>
       <c r="Q15">
-        <v>469.6608394466126</v>
+        <v>6053.689264124527</v>
       </c>
       <c r="R15">
-        <v>469.6608394466126</v>
+        <v>54483.20337712074</v>
       </c>
       <c r="S15">
-        <v>0.02410460329675902</v>
+        <v>0.2679343113494629</v>
       </c>
       <c r="T15">
-        <v>0.02410460329675902</v>
+        <v>0.300950346450012</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H16">
+        <v>393.490531</v>
+      </c>
+      <c r="I16">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J16">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.030318</v>
+      </c>
+      <c r="N16">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P16">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q16">
+        <v>3.976615306286</v>
+      </c>
+      <c r="R16">
+        <v>35.789537756574</v>
+      </c>
+      <c r="S16">
+        <v>0.0001760036957803052</v>
+      </c>
+      <c r="T16">
+        <v>0.0001976916392483957</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>131.1635103333333</v>
+      </c>
+      <c r="H17">
+        <v>393.490531</v>
+      </c>
+      <c r="I17">
+        <v>0.3913020665845575</v>
+      </c>
+      <c r="J17">
+        <v>0.3966804807205673</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>19.7096195</v>
+      </c>
+      <c r="N17">
+        <v>39.419239</v>
+      </c>
+      <c r="O17">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P17">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q17">
+        <v>2585.182880954319</v>
+      </c>
+      <c r="R17">
+        <v>15511.09728572591</v>
+      </c>
+      <c r="S17">
+        <v>0.1144193506967337</v>
+      </c>
+      <c r="T17">
+        <v>0.08567906827444964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>10.9951492009438</v>
-      </c>
-      <c r="H16">
-        <v>10.9951492009438</v>
-      </c>
-      <c r="I16">
-        <v>0.03595957579175706</v>
-      </c>
-      <c r="J16">
-        <v>0.03595957579175706</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="N16">
-        <v>19.7092840273248</v>
-      </c>
-      <c r="O16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="P16">
-        <v>0.309295109941603</v>
-      </c>
-      <c r="Q16">
-        <v>216.7065185242147</v>
-      </c>
-      <c r="R16">
-        <v>216.7065185242147</v>
-      </c>
-      <c r="S16">
-        <v>0.01112212094796491</v>
-      </c>
-      <c r="T16">
-        <v>0.01112212094796491</v>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>13.634385</v>
+      </c>
+      <c r="H18">
+        <v>27.26877</v>
+      </c>
+      <c r="I18">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J18">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.511114</v>
+      </c>
+      <c r="N18">
+        <v>4.533342</v>
+      </c>
+      <c r="O18">
+        <v>0.02241848840500565</v>
+      </c>
+      <c r="P18">
+        <v>0.02483957450832654</v>
+      </c>
+      <c r="Q18">
+        <v>20.60311005489</v>
+      </c>
+      <c r="R18">
+        <v>123.61866032934</v>
+      </c>
+      <c r="S18">
+        <v>0.0009118869276836727</v>
+      </c>
+      <c r="T18">
+        <v>0.000682835742903913</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>13.634385</v>
+      </c>
+      <c r="H19">
+        <v>27.26877</v>
+      </c>
+      <c r="I19">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J19">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>46.15376066666666</v>
+      </c>
+      <c r="N19">
+        <v>138.461282</v>
+      </c>
+      <c r="O19">
+        <v>0.6847250097299556</v>
+      </c>
+      <c r="P19">
+        <v>0.7586719313825014</v>
+      </c>
+      <c r="Q19">
+        <v>629.27814212719</v>
+      </c>
+      <c r="R19">
+        <v>3775.66885276314</v>
+      </c>
+      <c r="S19">
+        <v>0.02785164522026412</v>
+      </c>
+      <c r="T19">
+        <v>0.02085576432528104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>13.634385</v>
+      </c>
+      <c r="H20">
+        <v>27.26877</v>
+      </c>
+      <c r="I20">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J20">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.030318</v>
+      </c>
+      <c r="N20">
+        <v>0.09095399999999999</v>
+      </c>
+      <c r="O20">
+        <v>0.0004497898447522563</v>
+      </c>
+      <c r="P20">
+        <v>0.000498364928088446</v>
+      </c>
+      <c r="Q20">
+        <v>0.41336728443</v>
+      </c>
+      <c r="R20">
+        <v>2.48020370658</v>
+      </c>
+      <c r="S20">
+        <v>1.829550111607303E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.369996840301978E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>13.634385</v>
+      </c>
+      <c r="H21">
+        <v>27.26877</v>
+      </c>
+      <c r="I21">
+        <v>0.04067566515680266</v>
+      </c>
+      <c r="J21">
+        <v>0.02748983251202704</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>19.7096195</v>
+      </c>
+      <c r="N21">
+        <v>39.419239</v>
+      </c>
+      <c r="O21">
+        <v>0.2924067120202865</v>
+      </c>
+      <c r="P21">
+        <v>0.2159901291810835</v>
+      </c>
+      <c r="Q21">
+        <v>268.7285404665075</v>
+      </c>
+      <c r="R21">
+        <v>1074.91416186603</v>
+      </c>
+      <c r="S21">
+        <v>0.0118938375077388</v>
+      </c>
+      <c r="T21">
+        <v>0.00593753247543907</v>
       </c>
     </row>
   </sheetData>
